--- a/ARCHIVE/deployment/Omaha_Cal_Info_CP05MOAS-GL336_00002.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CP05MOAS-GL336_00002.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leila/Documents/OOI_assmgt/asset-management/deployment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leila/Documents/OOI_assmgt/asset-management/ARCHIVE/deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40040" yWindow="5080" windowWidth="23320" windowHeight="8460" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="45500" yWindow="4980" windowWidth="23320" windowHeight="8460" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -180,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,6 +256,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue ,Helvetica,Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -415,9 +420,6 @@
     <xf numFmtId="15" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,6 +444,7 @@
     <xf numFmtId="11" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -805,22 +808,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="13.796875" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="9" width="17.59765625" customWidth="1"/>
+    <col min="10" max="11" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -877,19 +880,25 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="20">
+        <v>42591</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="G2" s="20">
+        <v>42600</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="25" t="e">
+      <c r="M2" s="24" t="e">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N2" s="25" t="e">
+      <c r="N2" s="24" t="e">
         <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
         <v>#VALUE!</v>
       </c>
@@ -922,22 +931,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="8" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="7" max="8" width="36.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -979,11 +988,11 @@
       <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -1011,11 +1020,11 @@
       <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -1043,11 +1052,11 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1075,11 +1084,11 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1126,11 +1135,11 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1153,11 +1162,11 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1180,11 +1189,11 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1207,11 +1216,11 @@
       <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -1249,7 +1258,7 @@
       <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="10"/>
       <c r="H12" s="12"/>
       <c r="I12" s="10"/>
@@ -1289,7 +1298,7 @@
       <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="10"/>
       <c r="H14" s="12"/>
       <c r="I14" s="10"/>
@@ -1329,11 +1338,11 @@
       <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -1371,7 +1380,7 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="10"/>
       <c r="H18" s="12"/>
       <c r="I18" s="10"/>
